--- a/biology/Zoologie/Euctenochasmatia/Euctenochasmatia.xlsx
+++ b/biology/Zoologie/Euctenochasmatia/Euctenochasmatia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Euctenochasmatia forment un clade de ptérodactyloïdes archaeoptérodactyloïdes. Ce sont des ptérosaures, un groupe éteint de « reptiles ailés »[1].
-Ils ont vécu du Jurassique supérieur jusqu'à la fin du Crétacé inférieur et leurs fossiles ont été découverts en Europe, en Asie et en Afrique[2]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Euctenochasmatia forment un clade de ptérodactyloïdes archaeoptérodactyloïdes. Ce sont des ptérosaures, un groupe éteint de « reptiles ailés ».
+Ils ont vécu du Jurassique supérieur jusqu'à la fin du Crétacé inférieur et leurs fossiles ont été découverts en Europe, en Asie et en Afrique. 
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le clade des Euctenochasmatia a été défini en 2003 par David Unwin, comme le groupe qui inclut le dernier ancêtre commun de Pterodactylus kochi et Ctenochasma ainsi que tous leurs descendants[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le clade des Euctenochasmatia a été défini en 2003 par David Unwin, comme le groupe qui inclut le dernier ancêtre commun de Pterodactylus kochi et Ctenochasma ainsi que tous leurs descendants.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cladogramme ci-dessous montre les résultats de l'étude phylogénétique réalisée en 2018 par Longrich, Martill et Andres. Il intègre la description du genre Kryptodrakon[4],[1] :
-L'analyse de 2017 réalisée par Steven Vidovic et David Martill, avant la description de Kryptodrakon était sensiblement différente, en particulier pour les ptérodactyloïdes basaux et la position du clade des Lophocratia[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cladogramme ci-dessous montre les résultats de l'étude phylogénétique réalisée en 2018 par Longrich, Martill et Andres. Il intègre la description du genre Kryptodrakon, :
+L'analyse de 2017 réalisée par Steven Vidovic et David Martill, avant la description de Kryptodrakon était sensiblement différente, en particulier pour les ptérodactyloïdes basaux et la position du clade des Lophocratia :
 </t>
         </is>
       </c>
